--- a/Elektronica/Kabellengtes moederbord-toetsmodules.xlsx
+++ b/Elektronica/Kabellengtes moederbord-toetsmodules.xlsx
@@ -146,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -204,12 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B19"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4">
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="4">
@@ -678,7 +678,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="4">
@@ -689,7 +689,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="4">
@@ -711,7 +711,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
@@ -722,7 +722,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
@@ -733,7 +733,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4">
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4">
@@ -755,7 +755,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
@@ -799,7 +799,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4">
@@ -810,7 +810,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4">
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4">
